--- a/marksheet1.xlsx
+++ b/marksheet1.xlsx
@@ -5,18 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\std1\Desktop\java (10)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\ai-202505b1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9AA753-156D-4DD1-9AE3-3EB3B38E225C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554C767F-DF75-483F-9A6E-B5BCD46154C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{1DC4456E-DA29-4B85-AF9A-FCD1CA7F9BFD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="3" xr2:uid="{1DC4456E-DA29-4B85-AF9A-FCD1CA7F9BFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="9" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -184,6 +190,144 @@
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>product name</t>
+  </si>
+  <si>
+    <t>product price</t>
+  </si>
+  <si>
+    <t>productquantity</t>
+  </si>
+  <si>
+    <t>total sell</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>bags</t>
+  </si>
+  <si>
+    <t>watches</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>perfume</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker </t>
+  </si>
+  <si>
+    <t>keyboard</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>ice cream</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>pant</t>
+  </si>
+  <si>
+    <t>balls</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of total sell</t>
+  </si>
+  <si>
+    <t>Sum of revenue</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>appple</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>strawberry</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>watermelon</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mango </t>
+  </si>
+  <si>
+    <t>karachi</t>
+  </si>
+  <si>
+    <t>multan</t>
+  </si>
+  <si>
+    <t>lahore</t>
+  </si>
+  <si>
+    <t>islamabad</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feb </t>
+  </si>
+  <si>
+    <t>Sum of price</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Total Sum of price</t>
+  </si>
+  <si>
+    <t>Count of month</t>
+  </si>
+  <si>
+    <t>Total Count of month</t>
   </si>
 </sst>
 </file>
@@ -267,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -287,11 +431,47 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="31">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -425,6 +605,28 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -441,6 +643,714 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="45821.932747569444" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="16" xr:uid="{2212A4BD-4B48-4442-A32A-80222438142F}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="product name" numFmtId="0">
+      <sharedItems count="16">
+        <s v="bags"/>
+        <s v="watches"/>
+        <s v="pen"/>
+        <s v="glasses"/>
+        <s v="perfume"/>
+        <s v="shoes"/>
+        <s v="wallet"/>
+        <s v="speaker "/>
+        <s v="mouse"/>
+        <s v="keyboard"/>
+        <s v="copy"/>
+        <s v="juice"/>
+        <s v="ice cream"/>
+        <s v="shirt"/>
+        <s v="pant"/>
+        <s v="balls"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="product price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="5100"/>
+    </cacheField>
+    <cacheField name="productquantity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="93"/>
+    </cacheField>
+    <cacheField name="total sell" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="270"/>
+    </cacheField>
+    <cacheField name="revenue" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2200" maxValue="450000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="45821.946664236108" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15" xr:uid="{82226917-F608-4A6D-96D5-2503E93FCB33}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="product" numFmtId="0">
+      <sharedItems count="8">
+        <s v="appple"/>
+        <s v="mango"/>
+        <s v="strawberry"/>
+        <s v="banana"/>
+        <s v="watermelon"/>
+        <s v="apple"/>
+        <s v="apple "/>
+        <s v="mango "/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="600" count="5">
+        <n v="250"/>
+        <n v="400"/>
+        <n v="600"/>
+        <n v="200"/>
+        <n v="450"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="sell" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="34" maxValue="1200" count="15">
+        <n v="200"/>
+        <n v="1200"/>
+        <n v="90"/>
+        <n v="80"/>
+        <n v="87"/>
+        <n v="56"/>
+        <n v="300"/>
+        <n v="900"/>
+        <n v="45"/>
+        <n v="98"/>
+        <n v="34"/>
+        <n v="590"/>
+        <n v="53"/>
+        <n v="86"/>
+        <n v="65"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="revenue" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11250" maxValue="480000"/>
+    </cacheField>
+    <cacheField name="city" numFmtId="0">
+      <sharedItems count="4">
+        <s v="karachi"/>
+        <s v="multan"/>
+        <s v="lahore"/>
+        <s v="islamabad"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="month" numFmtId="0">
+      <sharedItems count="4">
+        <s v="jan"/>
+        <s v="march"/>
+        <s v="feb"/>
+        <s v="feb "/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="16">
+  <r>
+    <x v="0"/>
+    <n v="5000"/>
+    <n v="41"/>
+    <n v="90"/>
+    <n v="450000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1000"/>
+    <n v="50"/>
+    <n v="100"/>
+    <n v="100000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="20"/>
+    <n v="48"/>
+    <n v="4800"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="500"/>
+    <n v="34"/>
+    <n v="150"/>
+    <n v="75000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="200"/>
+    <n v="89"/>
+    <n v="270"/>
+    <n v="54000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="600"/>
+    <n v="87"/>
+    <n v="65"/>
+    <n v="39000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4000"/>
+    <n v="67"/>
+    <n v="93"/>
+    <n v="372000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="550"/>
+    <n v="93"/>
+    <n v="4"/>
+    <n v="2200"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="4000"/>
+    <n v="20"/>
+    <n v="67"/>
+    <n v="268000"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2300"/>
+    <n v="45"/>
+    <n v="83"/>
+    <n v="190900"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="780"/>
+    <n v="57"/>
+    <n v="37"/>
+    <n v="28860"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="950"/>
+    <n v="90"/>
+    <n v="60"/>
+    <n v="57000"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="5100"/>
+    <n v="37"/>
+    <n v="73"/>
+    <n v="372300"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="4500"/>
+    <n v="48"/>
+    <n v="27"/>
+    <n v="121500"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="2500"/>
+    <n v="87"/>
+    <n v="105"/>
+    <n v="262500"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="200"/>
+    <n v="50"/>
+    <n v="54"/>
+    <n v="10800"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="50000"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="480000"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="54000"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="16000"/>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="39150"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="14000"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="60000"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="180000"/>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="11250"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="58800"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="13600"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="11"/>
+    <n v="265500"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="21200"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="13"/>
+    <n v="17200"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="14"/>
+    <n v="29250"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{383BE6BB-24B2-43E6-9B7C-A385D94EEF2E}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J10:L27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="15"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of total sell" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of revenue" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EAA858F-76BA-45EB-AEF6-E0661D13AE38}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F34:P60" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="5"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="10"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="24">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="-2"/>
+    <field x="4"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="1">
+      <x v="2"/>
+    </i>
+    <i r="1" i="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of price" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Count of month" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{083A26E8-C467-4341-86CD-72F00910D79D}" name="Table1" displayName="Table1" ref="D6:H22" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="D6:H22" xr:uid="{083A26E8-C467-4341-86CD-72F00910D79D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{DFFA37BB-68FE-4086-9EA6-CF7B84DAC6C6}" name="product name" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{75E79C3D-A591-4826-9DB1-D0DB62084475}" name="product price" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{38A23D96-01DE-40DC-9F25-72B6A12B886D}" name="productquantity" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{A17E7C32-0CC8-4642-BF0B-1D13718433BF}" name="total sell" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{B39E72D2-3CE0-4CA2-A697-E932AD0AB168}" name="revenue" dataDxfId="26">
+      <calculatedColumnFormula>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61D9DD2D-03B5-477D-9403-291B977A47AE}" name="Table2" displayName="Table2" ref="G7:L22" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="G7:L22" xr:uid="{61D9DD2D-03B5-477D-9403-291B977A47AE}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5E839F26-D0BA-4531-90A5-FE300E59F27E}" name="product" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D3FF4EAD-82D3-4582-91D6-57E3CFD913DC}" name="price" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2E4BDBB3-1A28-4F93-950B-7D607E31794A}" name="sell" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{69C286E5-1880-433C-9715-BB10EE3766E8}" name="revenue" dataDxfId="4">
+      <calculatedColumnFormula>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{7C498E0C-48FC-4F03-A9B8-DDA30DE39C3D}" name="city" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{CE6D397B-FB94-4824-818E-D9FF1ADFFF41}" name="month" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1395,38 +2305,38 @@
     <mergeCell ref="I8:K9"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:I22">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="between">
       <formula>41</formula>
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:J22">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>AND(ISNUMBER(E14),E14&gt;=0,E14&lt;=40)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:K22">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="between">
       <formula>80</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="between">
       <formula>80</formula>
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9">
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="between">
       <formula>0</formula>
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG14">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="between">
       <formula>0</formula>
       <formula>40</formula>
     </cfRule>
@@ -1445,7 +2355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89E01C-72A2-4D91-BC91-644DA6073A2A}">
   <dimension ref="D6:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1621,35 +2531,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I8">
-    <cfRule type="containsBlanks" dxfId="8" priority="7">
+    <cfRule type="containsBlanks" dxfId="16" priority="7">
       <formula>LEN(TRIM(I8))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="8">
       <formula>LEN(TRIM(I8))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="6" priority="9">
+    <cfRule type="containsBlanks" dxfId="14" priority="9">
       <formula>LEN(TRIM(I8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="4">
       <formula>LEN(TRIM(K8))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="5">
       <formula>LEN(TRIM(K8))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="11" priority="6">
       <formula>LEN(TRIM(K8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="1">
       <formula>LEN(TRIM(M8))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="2">
       <formula>LEN(TRIM(M8))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(M8))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1660,4 +2570,1559 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BC9C2B-4C08-4B79-AC11-2EB208311AC7}">
+  <dimension ref="D6:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="7">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7">
+        <v>90</v>
+      </c>
+      <c r="H7" s="7">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="7">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7">
+        <v>100</v>
+      </c>
+      <c r="H8" s="7">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7">
+        <v>100</v>
+      </c>
+      <c r="F9" s="7">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="7">
+        <v>500</v>
+      </c>
+      <c r="F10" s="7">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7">
+        <v>150</v>
+      </c>
+      <c r="H10" s="7">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>75000</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="7">
+        <v>200</v>
+      </c>
+      <c r="F11" s="7">
+        <v>89</v>
+      </c>
+      <c r="G11" s="7">
+        <v>270</v>
+      </c>
+      <c r="H11" s="7">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>54000</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="9">
+        <v>90</v>
+      </c>
+      <c r="L11" s="9">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="7">
+        <v>600</v>
+      </c>
+      <c r="F12" s="7">
+        <v>87</v>
+      </c>
+      <c r="G12" s="7">
+        <v>65</v>
+      </c>
+      <c r="H12" s="7">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>39000</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="9">
+        <v>54</v>
+      </c>
+      <c r="L12" s="9">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4000</v>
+      </c>
+      <c r="F13" s="7">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7">
+        <v>93</v>
+      </c>
+      <c r="H13" s="7">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>372000</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="9">
+        <v>37</v>
+      </c>
+      <c r="L13" s="9">
+        <v>28860</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="7">
+        <v>550</v>
+      </c>
+      <c r="F14" s="7">
+        <v>93</v>
+      </c>
+      <c r="G14" s="7">
+        <v>4</v>
+      </c>
+      <c r="H14" s="7">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>2200</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="9">
+        <v>150</v>
+      </c>
+      <c r="L14" s="9">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4000</v>
+      </c>
+      <c r="F15" s="7">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7">
+        <v>67</v>
+      </c>
+      <c r="H15" s="7">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>268000</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="9">
+        <v>73</v>
+      </c>
+      <c r="L15" s="9">
+        <v>372300</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2300</v>
+      </c>
+      <c r="F16" s="7">
+        <v>45</v>
+      </c>
+      <c r="G16" s="7">
+        <v>83</v>
+      </c>
+      <c r="H16" s="7">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>190900</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="9">
+        <v>60</v>
+      </c>
+      <c r="L16" s="9">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7">
+        <v>780</v>
+      </c>
+      <c r="F17" s="7">
+        <v>57</v>
+      </c>
+      <c r="G17" s="7">
+        <v>37</v>
+      </c>
+      <c r="H17" s="7">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>28860</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="9">
+        <v>83</v>
+      </c>
+      <c r="L17" s="9">
+        <v>190900</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="7">
+        <v>950</v>
+      </c>
+      <c r="F18" s="7">
+        <v>90</v>
+      </c>
+      <c r="G18" s="7">
+        <v>60</v>
+      </c>
+      <c r="H18" s="7">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>57000</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="9">
+        <v>67</v>
+      </c>
+      <c r="L18" s="9">
+        <v>268000</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="7">
+        <v>5100</v>
+      </c>
+      <c r="F19" s="7">
+        <v>37</v>
+      </c>
+      <c r="G19" s="7">
+        <v>73</v>
+      </c>
+      <c r="H19" s="7">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>372300</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="9">
+        <v>105</v>
+      </c>
+      <c r="L19" s="9">
+        <v>262500</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4500</v>
+      </c>
+      <c r="F20" s="7">
+        <v>48</v>
+      </c>
+      <c r="G20" s="7">
+        <v>27</v>
+      </c>
+      <c r="H20" s="7">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>121500</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="9">
+        <v>48</v>
+      </c>
+      <c r="L20" s="9">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2500</v>
+      </c>
+      <c r="F21" s="7">
+        <v>87</v>
+      </c>
+      <c r="G21" s="7">
+        <v>105</v>
+      </c>
+      <c r="H21" s="7">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>262500</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="9">
+        <v>270</v>
+      </c>
+      <c r="L21" s="9">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="7">
+        <v>200</v>
+      </c>
+      <c r="F22" s="7">
+        <v>50</v>
+      </c>
+      <c r="G22" s="7">
+        <v>54</v>
+      </c>
+      <c r="H22" s="10">
+        <f>Table1[[#This Row],[product price]]*Table1[[#This Row],[total sell]]</f>
+        <v>10800</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="9">
+        <v>27</v>
+      </c>
+      <c r="L22" s="9">
+        <v>121500</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="J23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="9">
+        <v>65</v>
+      </c>
+      <c r="L23" s="9">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="J24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="9">
+        <v>4</v>
+      </c>
+      <c r="L24" s="9">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="J25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="9">
+        <v>93</v>
+      </c>
+      <c r="L25" s="9">
+        <v>372000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="J26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="9">
+        <v>100</v>
+      </c>
+      <c r="L26" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="J27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1326</v>
+      </c>
+      <c r="L27" s="9">
+        <v>2408860</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08784E31-9F93-429D-90F4-91A3746D0756}">
+  <dimension ref="F7:P60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="7">
+        <v>250</v>
+      </c>
+      <c r="I8" s="7">
+        <v>200</v>
+      </c>
+      <c r="J8" s="7">
+        <f>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</f>
+        <v>50000</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="7">
+        <v>400</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1200</v>
+      </c>
+      <c r="J9" s="7">
+        <f>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</f>
+        <v>480000</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="7">
+        <v>600</v>
+      </c>
+      <c r="I10" s="7">
+        <v>90</v>
+      </c>
+      <c r="J10" s="7">
+        <f>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</f>
+        <v>54000</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="7">
+        <v>200</v>
+      </c>
+      <c r="I11" s="7">
+        <v>80</v>
+      </c>
+      <c r="J11" s="7">
+        <f>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</f>
+        <v>16000</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="7">
+        <v>450</v>
+      </c>
+      <c r="I12" s="7">
+        <v>87</v>
+      </c>
+      <c r="J12" s="7">
+        <f>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</f>
+        <v>39150</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
+        <v>250</v>
+      </c>
+      <c r="I13" s="7">
+        <v>56</v>
+      </c>
+      <c r="J13" s="7">
+        <f>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</f>
+        <v>14000</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="7">
+        <v>200</v>
+      </c>
+      <c r="I14" s="7">
+        <v>300</v>
+      </c>
+      <c r="J14" s="7">
+        <f>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</f>
+        <v>60000</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="7">
+        <v>200</v>
+      </c>
+      <c r="I15" s="7">
+        <v>900</v>
+      </c>
+      <c r="J15" s="7">
+        <f>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</f>
+        <v>180000</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="7">
+        <v>250</v>
+      </c>
+      <c r="I16" s="7">
+        <v>45</v>
+      </c>
+      <c r="J16" s="7">
+        <f>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</f>
+        <v>11250</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="7">
+        <v>600</v>
+      </c>
+      <c r="I17" s="7">
+        <v>98</v>
+      </c>
+      <c r="J17" s="7">
+        <f>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</f>
+        <v>58800</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="7">
+        <v>400</v>
+      </c>
+      <c r="I18" s="7">
+        <v>34</v>
+      </c>
+      <c r="J18" s="7">
+        <f>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</f>
+        <v>13600</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="7">
+        <v>450</v>
+      </c>
+      <c r="I19" s="7">
+        <v>590</v>
+      </c>
+      <c r="J19" s="7">
+        <f>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</f>
+        <v>265500</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="7">
+        <v>400</v>
+      </c>
+      <c r="I20" s="7">
+        <v>53</v>
+      </c>
+      <c r="J20" s="7">
+        <f>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</f>
+        <v>21200</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="7">
+        <v>200</v>
+      </c>
+      <c r="I21" s="7">
+        <v>86</v>
+      </c>
+      <c r="J21" s="7">
+        <f>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</f>
+        <v>17200</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="7">
+        <v>450</v>
+      </c>
+      <c r="I22" s="7">
+        <v>65</v>
+      </c>
+      <c r="J22" s="7">
+        <f>Table2[[#This Row],[price]]*Table2[[#This Row],[sell]]</f>
+        <v>29250</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G34" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35" t="s">
+        <v>86</v>
+      </c>
+      <c r="O35" t="s">
+        <v>85</v>
+      </c>
+      <c r="P35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F36" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36" t="s">
+        <v>78</v>
+      </c>
+      <c r="L36" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" t="s">
+        <v>77</v>
+      </c>
+      <c r="N36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F37" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9">
+        <v>250</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9">
+        <v>1</v>
+      </c>
+      <c r="O37" s="9">
+        <v>250</v>
+      </c>
+      <c r="P37" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F38" s="13">
+        <v>56</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9">
+        <v>250</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9">
+        <v>1</v>
+      </c>
+      <c r="O38" s="9">
+        <v>250</v>
+      </c>
+      <c r="P38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F39" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9">
+        <v>250</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9">
+        <v>1</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9">
+        <v>250</v>
+      </c>
+      <c r="P39" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F40" s="13">
+        <v>45</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9">
+        <v>250</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9">
+        <v>1</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9">
+        <v>250</v>
+      </c>
+      <c r="P40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F41" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9">
+        <v>250</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9">
+        <v>1</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9">
+        <v>250</v>
+      </c>
+      <c r="P41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F42" s="13">
+        <v>200</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9">
+        <v>250</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9">
+        <v>1</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9">
+        <v>250</v>
+      </c>
+      <c r="P42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F43" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="9">
+        <v>400</v>
+      </c>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9">
+        <v>200</v>
+      </c>
+      <c r="J43" s="9">
+        <v>200</v>
+      </c>
+      <c r="K43" s="9">
+        <v>2</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9">
+        <v>1</v>
+      </c>
+      <c r="N43" s="9">
+        <v>1</v>
+      </c>
+      <c r="O43" s="9">
+        <v>800</v>
+      </c>
+      <c r="P43" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F44" s="13">
+        <v>80</v>
+      </c>
+      <c r="G44" s="9">
+        <v>200</v>
+      </c>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9">
+        <v>1</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9">
+        <v>200</v>
+      </c>
+      <c r="P44" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F45" s="13">
+        <v>86</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9">
+        <v>200</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9">
+        <v>1</v>
+      </c>
+      <c r="O45" s="9">
+        <v>200</v>
+      </c>
+      <c r="P45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F46" s="13">
+        <v>300</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9">
+        <v>200</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9">
+        <v>1</v>
+      </c>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9">
+        <v>200</v>
+      </c>
+      <c r="P46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F47" s="13">
+        <v>900</v>
+      </c>
+      <c r="G47" s="9">
+        <v>200</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9">
+        <v>1</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9">
+        <v>200</v>
+      </c>
+      <c r="P47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F48" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9">
+        <v>400</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9">
+        <v>1</v>
+      </c>
+      <c r="O48" s="9">
+        <v>400</v>
+      </c>
+      <c r="P48" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F49" s="13">
+        <v>1200</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9">
+        <v>400</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9">
+        <v>1</v>
+      </c>
+      <c r="O49" s="9">
+        <v>400</v>
+      </c>
+      <c r="P49" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F50" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9">
+        <v>400</v>
+      </c>
+      <c r="I50" s="9">
+        <v>400</v>
+      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9">
+        <v>1</v>
+      </c>
+      <c r="M50" s="9">
+        <v>1</v>
+      </c>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9">
+        <v>800</v>
+      </c>
+      <c r="P50" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F51" s="13">
+        <v>34</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9">
+        <v>400</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9">
+        <v>1</v>
+      </c>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9">
+        <v>400</v>
+      </c>
+      <c r="P51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F52" s="13">
+        <v>53</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9">
+        <v>400</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9">
+        <v>1</v>
+      </c>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9">
+        <v>400</v>
+      </c>
+      <c r="P52" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F53" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9">
+        <v>600</v>
+      </c>
+      <c r="J53" s="9">
+        <v>600</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9">
+        <v>1</v>
+      </c>
+      <c r="N53" s="9">
+        <v>1</v>
+      </c>
+      <c r="O53" s="9">
+        <v>1200</v>
+      </c>
+      <c r="P53" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F54" s="13">
+        <v>90</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9">
+        <v>600</v>
+      </c>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9">
+        <v>1</v>
+      </c>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9">
+        <v>600</v>
+      </c>
+      <c r="P54" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F55" s="13">
+        <v>98</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9">
+        <v>600</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9">
+        <v>1</v>
+      </c>
+      <c r="O55" s="9">
+        <v>600</v>
+      </c>
+      <c r="P55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F56" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="9">
+        <v>450</v>
+      </c>
+      <c r="H56" s="9">
+        <v>450</v>
+      </c>
+      <c r="I56" s="9">
+        <v>450</v>
+      </c>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9">
+        <v>1</v>
+      </c>
+      <c r="L56" s="9">
+        <v>1</v>
+      </c>
+      <c r="M56" s="9">
+        <v>1</v>
+      </c>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9">
+        <v>1350</v>
+      </c>
+      <c r="P56" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F57" s="13">
+        <v>65</v>
+      </c>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9">
+        <v>450</v>
+      </c>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9">
+        <v>1</v>
+      </c>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9">
+        <v>450</v>
+      </c>
+      <c r="P57" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F58" s="13">
+        <v>87</v>
+      </c>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9">
+        <v>450</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9">
+        <v>1</v>
+      </c>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9">
+        <v>450</v>
+      </c>
+      <c r="P58" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F59" s="13">
+        <v>590</v>
+      </c>
+      <c r="G59" s="9">
+        <v>450</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9">
+        <v>1</v>
+      </c>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9">
+        <v>450</v>
+      </c>
+      <c r="P59" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F60" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="9">
+        <v>850</v>
+      </c>
+      <c r="H60" s="9">
+        <v>1350</v>
+      </c>
+      <c r="I60" s="9">
+        <v>1650</v>
+      </c>
+      <c r="J60" s="9">
+        <v>1450</v>
+      </c>
+      <c r="K60" s="9">
+        <v>3</v>
+      </c>
+      <c r="L60" s="9">
+        <v>4</v>
+      </c>
+      <c r="M60" s="9">
+        <v>4</v>
+      </c>
+      <c r="N60" s="9">
+        <v>4</v>
+      </c>
+      <c r="O60" s="9">
+        <v>5300</v>
+      </c>
+      <c r="P60" s="9">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>